--- a/docs/wordcontrol_import_nirvi_example.xlsx
+++ b/docs/wordcontrol_import_nirvi_example.xlsx
@@ -521,7 +521,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="32.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="32.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">

--- a/docs/wordcontrol_import_nirvi_example.xlsx
+++ b/docs/wordcontrol_import_nirvi_example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Параметры лексем</t>
   </si>
@@ -117,6 +117,27 @@
   </si>
   <si>
     <t>halukas | ahkera "(esim. viinaan)"</t>
+  </si>
+  <si>
+    <t>n [pl]</t>
+  </si>
+  <si>
+    <t>atškaD</t>
+  </si>
+  <si>
+    <r>
+      <t>silm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>älasit</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -515,9 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -621,6 +644,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/wordcontrol_import_nirvi_example.xlsx
+++ b/docs/wordcontrol_import_nirvi_example.xlsx
@@ -49,8 +49,70 @@
     <t>n</t>
   </si>
   <si>
-    <r>
-      <t>aBi | api [Hev, Ro] | ap</t>
+    <t>apu</t>
+  </si>
+  <si>
+    <t>abi</t>
+  </si>
+  <si>
+    <t>aDria | at̆rē</t>
+  </si>
+  <si>
+    <t>aDria | atree</t>
+  </si>
+  <si>
+    <t>sahrat</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <r>
+      <t>ahnaZ | ah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>̆naZ</t>
+    </r>
+  </si>
+  <si>
+    <t>ahnaZ</t>
+  </si>
+  <si>
+    <t>ahkera työhön</t>
+  </si>
+  <si>
+    <t>halukas | ahkera "(esim. viinaan)"</t>
+  </si>
+  <si>
+    <t>n [pl]</t>
+  </si>
+  <si>
+    <t>atškaD</t>
+  </si>
+  <si>
+    <r>
+      <t>silm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>älasit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>aBi | api [Hev] [Ro] | ap</t>
     </r>
     <r>
       <rPr>
@@ -65,7 +127,7 @@
   </si>
   <si>
     <r>
-      <t>aBi | api [Hev, Ro] | app'</t>
+      <t>aBi | api [Hev] [Ro] | app'</t>
     </r>
     <r>
       <rPr>
@@ -75,68 +137,6 @@
         <charset val="204"/>
       </rPr>
       <t>ee [Ro]</t>
-    </r>
-  </si>
-  <si>
-    <t>apu</t>
-  </si>
-  <si>
-    <t>abi</t>
-  </si>
-  <si>
-    <t>aDria | at̆rē</t>
-  </si>
-  <si>
-    <t>aDria | atree</t>
-  </si>
-  <si>
-    <t>sahrat</t>
-  </si>
-  <si>
-    <t>adj</t>
-  </si>
-  <si>
-    <r>
-      <t>ahnaZ | ah</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>̆naZ</t>
-    </r>
-  </si>
-  <si>
-    <t>ahnaZ</t>
-  </si>
-  <si>
-    <t>ahkera työhön</t>
-  </si>
-  <si>
-    <t>halukas | ahkera "(esim. viinaan)"</t>
-  </si>
-  <si>
-    <t>n [pl]</t>
-  </si>
-  <si>
-    <t>atškaD</t>
-  </si>
-  <si>
-    <r>
-      <t>silm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>älasit</t>
     </r>
   </si>
 </sst>
@@ -538,9 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -598,36 +596,36 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,27 +633,27 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/wordcontrol_import_nirvi_example.xlsx
+++ b/docs/wordcontrol_import_nirvi_example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Параметры лексем</t>
   </si>
@@ -138,6 +138,9 @@
       </rPr>
       <t>ee [Ro]</t>
     </r>
+  </si>
+  <si>
+    <t>Расширенный комментарий</t>
   </si>
 </sst>
 </file>
@@ -536,17 +539,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
     <col min="2" max="5" width="32.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +568,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -577,7 +586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -591,7 +600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -608,7 +617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -622,13 +631,14 @@
         <v>19</v>
       </c>
       <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -642,7 +652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>

--- a/docs/wordcontrol_import_nirvi_example.xlsx
+++ b/docs/wordcontrol_import_nirvi_example.xlsx
@@ -19,12 +19,6 @@
     <t>Параметры лексем</t>
   </si>
   <si>
-    <t>Ижорский (сойкинский) [Nirvi @ Nirvi]</t>
-  </si>
-  <si>
-    <t>Ижорский (сойкинский) [учебная @ Nirvi в учебной]</t>
-  </si>
-  <si>
     <t>Финский</t>
   </si>
   <si>
@@ -141,6 +135,12 @@
   </si>
   <si>
     <t>Расширенный комментарий</t>
+  </si>
+  <si>
+    <t>Ижорский (сойкинский) [Nirvi] @ Nirvi</t>
+  </si>
+  <si>
+    <t>Ижорский (сойкинский) [учебная] @ Nirvi | в учебной системе</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,118 +552,118 @@
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/wordcontrol_import_nirvi_example.xlsx
+++ b/docs/wordcontrol_import_nirvi_example.xlsx
@@ -137,10 +137,10 @@
     <t>Расширенный комментарий</t>
   </si>
   <si>
-    <t>Ижорский (сойкинский) [Nirvi] @ Nirvi</t>
-  </si>
-  <si>
-    <t>Ижорский (сойкинский) [учебная] @ Nirvi | в учебной системе</t>
+    <t>Ижорский (сойкинский) [учебная] | в учебной системе</t>
+  </si>
+  <si>
+    <t>Ижорский (сойкинский) [Nirvi]</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,15 +552,15 @@
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>

--- a/docs/wordcontrol_import_nirvi_example.xlsx
+++ b/docs/wordcontrol_import_nirvi_example.xlsx
@@ -137,10 +137,10 @@
     <t>Расширенный комментарий</t>
   </si>
   <si>
-    <t>Ижорский (сойкинский) [учебная] | в учебной системе</t>
-  </si>
-  <si>
     <t>Ижорский (сойкинский) [Nirvi]</t>
+  </si>
+  <si>
+    <t>Ижорский (сойкинский) [учебная]</t>
   </si>
 </sst>
 </file>
@@ -541,9 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -557,10 +555,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>

--- a/docs/wordcontrol_import_nirvi_example.xlsx
+++ b/docs/wordcontrol_import_nirvi_example.xlsx
@@ -120,8 +120,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>aBi | api [Hev] [Ro] | app'</t>
+    <t>Расширенный комментарий</t>
+  </si>
+  <si>
+    <t>Ижорский (сойкинский) [Nirvi]</t>
+  </si>
+  <si>
+    <t>Ижорский (сойкинский) [учебная]</t>
+  </si>
+  <si>
+    <r>
+      <t>aBi | api | app'</t>
     </r>
     <r>
       <rPr>
@@ -130,17 +139,8 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>ee [Ro]</t>
-    </r>
-  </si>
-  <si>
-    <t>Расширенный комментарий</t>
-  </si>
-  <si>
-    <t>Ижорский (сойкинский) [Nirvi]</t>
-  </si>
-  <si>
-    <t>Ижорский (сойкинский) [учебная]</t>
+      <t>ee</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -541,7 +541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -555,10 +557,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -567,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,7 +608,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>

--- a/docs/wordcontrol_import_nirvi_example.xlsx
+++ b/docs/wordcontrol_import_nirvi_example.xlsx
@@ -75,9 +75,6 @@
     </r>
   </si>
   <si>
-    <t>ahnaZ</t>
-  </si>
-  <si>
     <t>ahkera työhön</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
       </rPr>
       <t>ee</t>
     </r>
+  </si>
+  <si>
+    <t>ahnaZ | ahnaZ</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,10 +557,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -569,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -605,10 +605,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -625,17 +625,17 @@
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -654,16 +654,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/wordcontrol_import_nirvi_example.xlsx
+++ b/docs/wordcontrol_import_nirvi_example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Параметры лексем</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>aDria | at̆rē</t>
-  </si>
-  <si>
-    <t>aDria | atree</t>
   </si>
   <si>
     <t>sahrat</t>
@@ -126,8 +123,17 @@
     <t>Ижорский (сойкинский) [учебная]</t>
   </si>
   <si>
-    <r>
-      <t>aBi | api | app'</t>
+    <t>ahnaz | ahnaz</t>
+  </si>
+  <si>
+    <t>atškad</t>
+  </si>
+  <si>
+    <t>atria | atree</t>
+  </si>
+  <si>
+    <r>
+      <t>api | api | app'</t>
     </r>
     <r>
       <rPr>
@@ -138,9 +144,6 @@
       </rPr>
       <t>ee</t>
     </r>
-  </si>
-  <si>
-    <t>ahnaZ | ahnaZ</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -569,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -605,10 +608,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -619,23 +622,23 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -646,24 +649,24 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/wordcontrol_import_nirvi_example.xlsx
+++ b/docs/wordcontrol_import_nirvi_example.xlsx
@@ -85,7 +85,54 @@
   </si>
   <si>
     <r>
-      <t>silm</t>
+      <t>aBi | api [Hev] [Ro] | ap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ṕē [Ro]</t>
+    </r>
+  </si>
+  <si>
+    <t>Расширенный комментарий</t>
+  </si>
+  <si>
+    <t>Ижорский (сойкинский) [Nirvi]</t>
+  </si>
+  <si>
+    <t>Ижорский (сойкинский) [учебная]</t>
+  </si>
+  <si>
+    <t>ahnaz | ahnaz</t>
+  </si>
+  <si>
+    <t>atškad</t>
+  </si>
+  <si>
+    <t>atria | atree</t>
+  </si>
+  <si>
+    <r>
+      <t>api | api | app'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ee</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[pl] silm</t>
     </r>
     <r>
       <rPr>
@@ -96,53 +143,6 @@
         <charset val="204"/>
       </rPr>
       <t>älasit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>aBi | api [Hev] [Ro] | ap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ṕē [Ro]</t>
-    </r>
-  </si>
-  <si>
-    <t>Расширенный комментарий</t>
-  </si>
-  <si>
-    <t>Ижорский (сойкинский) [Nirvi]</t>
-  </si>
-  <si>
-    <t>Ижорский (сойкинский) [учебная]</t>
-  </si>
-  <si>
-    <t>ahnaz | ahnaz</t>
-  </si>
-  <si>
-    <t>atškad</t>
-  </si>
-  <si>
-    <t>atria | atree</t>
-  </si>
-  <si>
-    <r>
-      <t>api | api | app'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ee</t>
     </r>
   </si>
 </sst>
@@ -545,7 +545,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,10 +608,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -649,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
@@ -663,10 +663,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
